--- a/test_chart.xlsx
+++ b/test_chart.xlsx
@@ -387,9 +387,6 @@
               </a:ln>
             </spPr>
           </marker>
-          <dLbls>
-            <showVal val="1"/>
-          </dLbls>
           <cat>
             <numRef>
               <f>'Executive Summary'!$G$4:$G$15</f>
@@ -504,9 +501,6 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <dLbls>
-            <showVal val="1"/>
-          </dLbls>
           <cat>
             <numRef>
               <f>'Executive Summary'!$J$4:$J$14</f>
@@ -849,6 +843,242 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Portfolio Growth - 12 Month Progression</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!H3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="30000">
+              <a:solidFill>
+                <a:srgbClr val="1F4788"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$H$4:$H$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Portfolio Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Monthly Returns - 12 Month Performance</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!K3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$J$4:$J$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$K$4:$K$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Profit ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
     <title>
@@ -969,7 +1199,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
@@ -1214,6 +1444,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>

--- a/test_chart.xlsx
+++ b/test_chart.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,8 +62,13 @@
     <font>
       <sz val="10"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -122,6 +127,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F1DCDB"/>
         <bgColor rgb="00F1DCDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00595959"/>
+        <bgColor rgb="00595959"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070AD47"/>
+        <bgColor rgb="0070AD47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5504F"/>
+        <bgColor rgb="00C5504F"/>
       </patternFill>
     </fill>
   </fills>
@@ -195,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -265,6 +288,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,6 +489,119 @@
     <legend>
       <legendPos val="b"/>
     </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Monthly Returns - 12 Month Performance</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!K3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$J$4:$J$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$K$4:$K$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Profit ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -1079,7 +1224,6 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -1201,7 +1345,6 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -1309,6 +1452,125 @@
     <legend>
       <legendPos val="b"/>
     </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Portfolio Growth - 12 Month Progression</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!H3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="30000">
+              <a:solidFill>
+                <a:srgbClr val="1F4788"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$H$4:$H$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Portfolio Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -1488,6 +1750,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="9" name="Chart 9"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="10" name="Chart 10"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -2773,46 +3079,70 @@
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="24" t="inlineStr">
-        <is>
-          <t>Total profit, %</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I9" s="8" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>3.9</v>
+      <c r="A9" s="30" t="inlineStr">
+        <is>
+          <t>Win/Loss Indicator</t>
+        </is>
+      </c>
+      <c r="B9" s="31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="C9" s="31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D9" s="31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E9" s="31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F9" s="31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G9" s="31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="H9" s="31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="I9" s="32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J9" s="31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="K9" s="31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="L9" s="31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M9" s="31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">

--- a/test_chart.xlsx
+++ b/test_chart.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,6 +66,16 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001F4788"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="14">
@@ -148,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -214,11 +224,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="004472C4"/>
+      </left>
+      <right style="thin">
+        <color rgb="004472C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="004472C4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="004472C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="004472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="004472C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="004472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -298,6 +366,17 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -496,6 +575,237 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Monthly Returns - 12 Month Performance</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!K3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$J$4:$J$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$K$4:$K$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Profit ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Portfolio Growth - 12 Month Progression</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!H3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="30000">
+              <a:solidFill>
+                <a:srgbClr val="1F4788"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$H$4:$H$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Portfolio Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
@@ -1460,7 +1770,6 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -1799,6 +2108,50 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="11" name="Chart 11"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="12" name="Chart 12"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -2831,7 +3184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3468,75 +3821,175 @@
     </row>
     <row r="27" ht="8" customHeight="1"/>
     <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="12" t="n"/>
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t>Performance Summary</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="24" t="n"/>
-      <c r="B29" s="29" t="n"/>
-      <c r="C29" s="29" t="n"/>
-      <c r="D29" s="29" t="n"/>
-      <c r="E29" s="29" t="n"/>
-      <c r="F29" s="29" t="n"/>
-      <c r="G29" s="29" t="n"/>
-      <c r="H29" s="29" t="n"/>
-      <c r="I29" s="29" t="n"/>
-      <c r="J29" s="29" t="n"/>
-      <c r="K29" s="29" t="n"/>
-      <c r="L29" s="29" t="n"/>
-      <c r="M29" s="29" t="n"/>
+      <c r="A29" s="34" t="inlineStr">
+        <is>
+          <t>Win Rate</t>
+        </is>
+      </c>
+      <c r="B29" s="35" t="inlineStr">
+        <is>
+          <t>91.7%</t>
+        </is>
+      </c>
+      <c r="C29" s="36" t="n"/>
+      <c r="D29" s="36" t="n"/>
+      <c r="E29" s="36" t="n"/>
+      <c r="F29" s="36" t="n"/>
+      <c r="G29" s="36" t="n"/>
+      <c r="H29" s="36" t="n"/>
+      <c r="I29" s="36" t="n"/>
+      <c r="J29" s="36" t="n"/>
+      <c r="K29" s="36" t="n"/>
+      <c r="L29" s="36" t="n"/>
+      <c r="M29" s="37" t="n"/>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="24" t="n"/>
-      <c r="B30" s="29" t="n"/>
-      <c r="C30" s="29" t="n"/>
-      <c r="D30" s="29" t="n"/>
-      <c r="E30" s="29" t="n"/>
-      <c r="F30" s="29" t="n"/>
-      <c r="G30" s="29" t="n"/>
-      <c r="H30" s="29" t="n"/>
-      <c r="I30" s="29" t="n"/>
-      <c r="J30" s="29" t="n"/>
-      <c r="K30" s="29" t="n"/>
-      <c r="L30" s="29" t="n"/>
-      <c r="M30" s="29" t="n"/>
+      <c r="A30" s="34" t="inlineStr">
+        <is>
+          <t>Wins / Losses</t>
+        </is>
+      </c>
+      <c r="B30" s="35" t="inlineStr">
+        <is>
+          <t>11 / 1</t>
+        </is>
+      </c>
+      <c r="C30" s="36" t="n"/>
+      <c r="D30" s="36" t="n"/>
+      <c r="E30" s="36" t="n"/>
+      <c r="F30" s="36" t="n"/>
+      <c r="G30" s="36" t="n"/>
+      <c r="H30" s="36" t="n"/>
+      <c r="I30" s="36" t="n"/>
+      <c r="J30" s="36" t="n"/>
+      <c r="K30" s="36" t="n"/>
+      <c r="L30" s="36" t="n"/>
+      <c r="M30" s="37" t="n"/>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="24" t="n"/>
-      <c r="B31" s="29" t="n"/>
-      <c r="C31" s="29" t="n"/>
-      <c r="D31" s="29" t="n"/>
-      <c r="E31" s="29" t="n"/>
-      <c r="F31" s="29" t="n"/>
-      <c r="G31" s="29" t="n"/>
-      <c r="H31" s="29" t="n"/>
-      <c r="I31" s="29" t="n"/>
-      <c r="J31" s="29" t="n"/>
-      <c r="K31" s="29" t="n"/>
-      <c r="L31" s="29" t="n"/>
-      <c r="M31" s="29" t="n"/>
+      <c r="A31" s="34" t="inlineStr">
+        <is>
+          <t>Avg Profit</t>
+        </is>
+      </c>
+      <c r="B31" s="35" t="inlineStr">
+        <is>
+          <t>$3,636.36</t>
+        </is>
+      </c>
+      <c r="C31" s="36" t="n"/>
+      <c r="D31" s="36" t="n"/>
+      <c r="E31" s="36" t="n"/>
+      <c r="F31" s="36" t="n"/>
+      <c r="G31" s="36" t="n"/>
+      <c r="H31" s="36" t="n"/>
+      <c r="I31" s="36" t="n"/>
+      <c r="J31" s="36" t="n"/>
+      <c r="K31" s="36" t="n"/>
+      <c r="L31" s="36" t="n"/>
+      <c r="M31" s="37" t="n"/>
     </row>
     <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="24" t="n"/>
-      <c r="B32" s="29" t="n"/>
-      <c r="C32" s="29" t="n"/>
-      <c r="D32" s="29" t="n"/>
-      <c r="E32" s="29" t="n"/>
-      <c r="F32" s="29" t="n"/>
-      <c r="G32" s="29" t="n"/>
-      <c r="H32" s="29" t="n"/>
-      <c r="I32" s="29" t="n"/>
-      <c r="J32" s="29" t="n"/>
-      <c r="K32" s="29" t="n"/>
-      <c r="L32" s="29" t="n"/>
-      <c r="M32" s="29" t="n"/>
+      <c r="A32" s="34" t="inlineStr">
+        <is>
+          <t>Avg Loss</t>
+        </is>
+      </c>
+      <c r="B32" s="35" t="inlineStr">
+        <is>
+          <t>$-2,000.00</t>
+        </is>
+      </c>
+      <c r="C32" s="36" t="n"/>
+      <c r="D32" s="36" t="n"/>
+      <c r="E32" s="36" t="n"/>
+      <c r="F32" s="36" t="n"/>
+      <c r="G32" s="36" t="n"/>
+      <c r="H32" s="36" t="n"/>
+      <c r="I32" s="36" t="n"/>
+      <c r="J32" s="36" t="n"/>
+      <c r="K32" s="36" t="n"/>
+      <c r="L32" s="36" t="n"/>
+      <c r="M32" s="37" t="n"/>
+    </row>
+    <row r="33" ht="18" customHeight="1">
+      <c r="A33" s="34" t="inlineStr">
+        <is>
+          <t>Profit Factor</t>
+        </is>
+      </c>
+      <c r="B33" s="35" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="C33" s="36" t="n"/>
+      <c r="D33" s="36" t="n"/>
+      <c r="E33" s="36" t="n"/>
+      <c r="F33" s="36" t="n"/>
+      <c r="G33" s="36" t="n"/>
+      <c r="H33" s="36" t="n"/>
+      <c r="I33" s="36" t="n"/>
+      <c r="J33" s="36" t="n"/>
+      <c r="K33" s="36" t="n"/>
+      <c r="L33" s="36" t="n"/>
+      <c r="M33" s="37" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" s="34" t="inlineStr">
+        <is>
+          <t>Largest Win</t>
+        </is>
+      </c>
+      <c r="B34" s="35" t="inlineStr">
+        <is>
+          <t>$5,000.00</t>
+        </is>
+      </c>
+      <c r="C34" s="36" t="n"/>
+      <c r="D34" s="36" t="n"/>
+      <c r="E34" s="36" t="n"/>
+      <c r="F34" s="36" t="n"/>
+      <c r="G34" s="36" t="n"/>
+      <c r="H34" s="36" t="n"/>
+      <c r="I34" s="36" t="n"/>
+      <c r="J34" s="36" t="n"/>
+      <c r="K34" s="36" t="n"/>
+      <c r="L34" s="36" t="n"/>
+      <c r="M34" s="37" t="n"/>
+    </row>
+    <row r="35" ht="18" customHeight="1">
+      <c r="A35" s="34" t="inlineStr">
+        <is>
+          <t>Largest Loss</t>
+        </is>
+      </c>
+      <c r="B35" s="35" t="inlineStr">
+        <is>
+          <t>$-2,000.00</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="A14:M14"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B33:M33"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A22:M22"/>
+    <mergeCell ref="B31:M31"/>
     <mergeCell ref="A12:M12"/>
+    <mergeCell ref="B32:M32"/>
     <mergeCell ref="A7:M7"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B29:M29"/>
     <mergeCell ref="A28:M28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
